--- a/data/José RomeroT3-2025.xlsx
+++ b/data/José RomeroT3-2025.xlsx
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>86.16580352000001</v>
+        <v>11.62978169000001</v>
       </c>
     </row>
     <row r="15">
